--- a/docs/nopublish/groups.xlsx
+++ b/docs/nopublish/groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A420903B-1D0B-43E5-B00C-C9816C50C03C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC2556F-574D-48AF-B63A-58383EE57649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
+    <workbookView xWindow="345" yWindow="360" windowWidth="28800" windowHeight="14985" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
   <si>
     <t>Manuel</t>
   </si>
@@ -61,6 +61,48 @@
   </si>
   <si>
     <t>group</t>
+  </si>
+  <si>
+    <t>Claire</t>
+  </si>
+  <si>
+    <t>Guidinger</t>
+  </si>
+  <si>
+    <t>Yijun</t>
+  </si>
+  <si>
+    <t>Cheng</t>
+  </si>
+  <si>
+    <t>Nichole</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>b</t>
+  </si>
+  <si>
+    <t>Mandi</t>
+  </si>
+  <si>
+    <t>Ward</t>
+  </si>
+  <si>
+    <t>Amy</t>
+  </si>
+  <si>
+    <t>Warnock</t>
+  </si>
+  <si>
+    <t>Marielena</t>
+  </si>
+  <si>
+    <t>McWhirter</t>
+  </si>
+  <si>
+    <t>c</t>
   </si>
 </sst>
 </file>
@@ -412,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF4479-1AC0-4FF0-8CC8-4FD64569A518}">
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -470,6 +512,72 @@
         <v>2</v>
       </c>
     </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>9</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>13</v>
+      </c>
+      <c r="B8" t="s">
+        <v>14</v>
+      </c>
+      <c r="C8" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" t="s">
+        <v>19</v>
+      </c>
+      <c r="C10" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>20</v>
+      </c>
+      <c r="B11" t="s">
+        <v>21</v>
+      </c>
+      <c r="C11" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/docs/nopublish/groups.xlsx
+++ b/docs/nopublish/groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4EC2556F-574D-48AF-B63A-58383EE57649}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C11DC3-01A5-45C1-9694-055964B0389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="345" yWindow="360" windowWidth="28800" windowHeight="14985" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="30" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
   <si>
     <t>Manuel</t>
   </si>
@@ -75,12 +75,6 @@
     <t>Cheng</t>
   </si>
   <si>
-    <t>Nichole</t>
-  </si>
-  <si>
-    <t>Kelly</t>
-  </si>
-  <si>
     <t>b</t>
   </si>
   <si>
@@ -103,6 +97,93 @@
   </si>
   <si>
     <t>c</t>
+  </si>
+  <si>
+    <t>Claas</t>
+  </si>
+  <si>
+    <t>Cassie</t>
+  </si>
+  <si>
+    <t>Malcom</t>
+  </si>
+  <si>
+    <t>Mavis</t>
+  </si>
+  <si>
+    <t>Gallo</t>
+  </si>
+  <si>
+    <t>d</t>
+  </si>
+  <si>
+    <t>Lauren</t>
+  </si>
+  <si>
+    <t>Berny</t>
+  </si>
+  <si>
+    <t>Aubrey</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Shawn</t>
+  </si>
+  <si>
+    <t>McWeeny</t>
+  </si>
+  <si>
+    <t>Heather</t>
+  </si>
+  <si>
+    <t>Leonard</t>
+  </si>
+  <si>
+    <t>e</t>
+  </si>
+  <si>
+    <t>Abbie</t>
+  </si>
+  <si>
+    <t>Sanders</t>
+  </si>
+  <si>
+    <t>Rebecca</t>
+  </si>
+  <si>
+    <t>Gordon</t>
+  </si>
+  <si>
+    <t>Elizabeth</t>
+  </si>
+  <si>
+    <t>Bates</t>
+  </si>
+  <si>
+    <t>Esmeralda</t>
+  </si>
+  <si>
+    <t>Castro</t>
+  </si>
+  <si>
+    <t>f</t>
+  </si>
+  <si>
+    <t>Zach</t>
+  </si>
+  <si>
+    <t>Kaylor</t>
+  </si>
+  <si>
+    <t>Khurana</t>
+  </si>
+  <si>
+    <t>Adriana</t>
+  </si>
+  <si>
+    <t>Connd</t>
   </si>
 </sst>
 </file>
@@ -118,12 +199,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -138,8 +225,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -454,15 +543,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF4479-1AC0-4FF0-8CC8-4FD64569A518}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="A24" sqref="A24:C24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -492,6 +581,9 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
       <c r="C3" t="s">
         <v>2</v>
       </c>
@@ -500,6 +592,9 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
+      <c r="B4" t="s">
+        <v>21</v>
+      </c>
       <c r="C4" t="s">
         <v>2</v>
       </c>
@@ -508,77 +603,220 @@
       <c r="A5" t="s">
         <v>5</v>
       </c>
+      <c r="B5" t="s">
+        <v>46</v>
+      </c>
       <c r="C5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="B6" t="s">
-        <v>10</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>15</v>
+        <v>2</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="B7" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="C7" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>11</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" t="s">
         <v>13</v>
       </c>
-      <c r="B8" t="s">
-        <v>14</v>
-      </c>
-      <c r="C8" t="s">
-        <v>15</v>
-      </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" t="s">
-        <v>17</v>
-      </c>
-      <c r="C9" t="s">
-        <v>22</v>
+      <c r="A9" s="1"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>18</v>
+        <v>14</v>
       </c>
       <c r="B10" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" t="s">
+        <v>17</v>
+      </c>
+      <c r="C11" t="s">
         <v>20</v>
       </c>
-      <c r="B11" t="s">
-        <v>21</v>
-      </c>
-      <c r="C11" t="s">
-        <v>22</v>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>19</v>
+      </c>
+      <c r="C12" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>24</v>
+      </c>
+      <c r="B13" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B14" t="s">
+        <v>28</v>
+      </c>
+      <c r="C14" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" t="s">
+        <v>30</v>
+      </c>
+      <c r="C15" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" t="s">
+        <v>32</v>
+      </c>
+      <c r="C16" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>48</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" t="s">
+        <v>34</v>
+      </c>
+      <c r="C18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>36</v>
+      </c>
+      <c r="B19" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>38</v>
+      </c>
+      <c r="B20" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>40</v>
+      </c>
+      <c r="B21" t="s">
+        <v>41</v>
+      </c>
+      <c r="C21" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>42</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>45</v>
+      </c>
+      <c r="B23" t="s">
+        <v>43</v>
+      </c>
+      <c r="C23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>44</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/docs/nopublish/groups.xlsx
+++ b/docs/nopublish/groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F4C11DC3-01A5-45C1-9694-055964B0389A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAD12E8-821E-4135-A599-221FDD10C117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11145" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
+    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11145" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="50">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
   <si>
     <t>Manuel</t>
   </si>
@@ -184,6 +184,30 @@
   </si>
   <si>
     <t>Connd</t>
+  </si>
+  <si>
+    <t>Eliott</t>
+  </si>
+  <si>
+    <t>Doyle</t>
+  </si>
+  <si>
+    <t>Farley</t>
+  </si>
+  <si>
+    <t>Simone</t>
+  </si>
+  <si>
+    <t>Mendes</t>
+  </si>
+  <si>
+    <t>Dillon</t>
+  </si>
+  <si>
+    <t>Welindt</t>
+  </si>
+  <si>
+    <t>g</t>
   </si>
 </sst>
 </file>
@@ -543,10 +567,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF4479-1AC0-4FF0-8CC8-4FD64569A518}">
-  <dimension ref="A1:C24"/>
+  <dimension ref="A1:C27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
-      <selection activeCell="A24" sqref="A24:C24"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -798,7 +822,7 @@
         <v>45</v>
       </c>
       <c r="B23" t="s">
-        <v>43</v>
+        <v>52</v>
       </c>
       <c r="C23" t="s">
         <v>44</v>
@@ -813,6 +837,39 @@
       </c>
       <c r="C24" s="2" t="s">
         <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>50</v>
+      </c>
+      <c r="B25" t="s">
+        <v>51</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>53</v>
+      </c>
+      <c r="B26" t="s">
+        <v>54</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>55</v>
+      </c>
+      <c r="B27" t="s">
+        <v>56</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>57</v>
       </c>
     </row>
   </sheetData>

--- a/docs/nopublish/groups.xlsx
+++ b/docs/nopublish/groups.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FFAD12E8-821E-4135-A599-221FDD10C117}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF82A50-8041-4CEF-B6A6-361E404656DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2250" yWindow="2250" windowWidth="21600" windowHeight="11145" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
+    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11250" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
   <si>
     <t>Manuel</t>
   </si>
@@ -223,18 +223,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -249,9 +243,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
@@ -567,10 +560,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF4479-1AC0-4FF0-8CC8-4FD64569A518}">
-  <dimension ref="A1:C27"/>
+  <dimension ref="A1:C26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A2" sqref="A2:C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -592,10 +585,10 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>0</v>
+        <v>22</v>
       </c>
       <c r="B2" t="s">
-        <v>1</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
         <v>2</v>
@@ -603,10 +596,10 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="B3" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" t="s">
         <v>2</v>
@@ -614,10 +607,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="C4" t="s">
         <v>2</v>
@@ -625,10 +618,10 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="B5" t="s">
-        <v>46</v>
+        <v>1</v>
       </c>
       <c r="C5" t="s">
         <v>2</v>
@@ -636,10 +629,10 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>22</v>
+        <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="C6" t="s">
         <v>2</v>
@@ -668,10 +661,14 @@
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1" t="s">
-        <v>13</v>
+      <c r="A9" t="s">
+        <v>16</v>
+      </c>
+      <c r="B9" t="s">
+        <v>17</v>
+      </c>
+      <c r="C9" t="s">
+        <v>20</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
@@ -687,10 +684,10 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B11" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C11" t="s">
         <v>20</v>
@@ -698,21 +695,21 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>18</v>
+        <v>48</v>
       </c>
       <c r="B12" t="s">
-        <v>19</v>
+        <v>49</v>
       </c>
       <c r="C12" t="s">
-        <v>20</v>
+        <v>26</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" t="s">
         <v>26</v>
@@ -731,10 +728,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B15" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C15" t="s">
         <v>26</v>
@@ -753,21 +750,21 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="B17" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C17" t="s">
-        <v>26</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="B18" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C18" t="s">
         <v>35</v>
@@ -775,10 +772,10 @@
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="B19" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="C19" t="s">
         <v>35</v>
@@ -796,14 +793,14 @@
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
+      <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="B21" t="s">
+      <c r="B21" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="C21" t="s">
-        <v>35</v>
+      <c r="C21" s="1" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -829,14 +826,14 @@
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C24" s="2" t="s">
-        <v>44</v>
+      <c r="A24" t="s">
+        <v>55</v>
+      </c>
+      <c r="B24" t="s">
+        <v>56</v>
+      </c>
+      <c r="C24" s="1" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -846,7 +843,7 @@
       <c r="B25" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
+      <c r="C25" s="1" t="s">
         <v>57</v>
       </c>
     </row>
@@ -857,22 +854,15 @@
       <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="2" t="s">
+      <c r="C26" s="1" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>55</v>
-      </c>
-      <c r="B27" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
+    <sortCondition ref="C2:C26"/>
+    <sortCondition ref="A2:A26"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/docs/nopublish/groups.xlsx
+++ b/docs/nopublish/groups.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jnese\Desktop\BRT\Teaching\Intro-Data-Science\c1-intro-fall-2021\nopublish\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1BF82A50-8041-4CEF-B6A6-361E404656DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E38047D-6F3D-4816-BE60-101EBCE6B88A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11250" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
+    <workbookView xWindow="-195" yWindow="-195" windowWidth="29190" windowHeight="15990" xr2:uid="{82FEB544-DC35-4408-89F9-F4A657CE9573}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="78" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="98">
   <si>
     <t>Manuel</t>
   </si>
@@ -99,9 +99,6 @@
     <t>c</t>
   </si>
   <si>
-    <t>Claas</t>
-  </si>
-  <si>
     <t>Cassie</t>
   </si>
   <si>
@@ -183,9 +180,6 @@
     <t>Adriana</t>
   </si>
   <si>
-    <t>Connd</t>
-  </si>
-  <si>
     <t>Eliott</t>
   </si>
   <si>
@@ -208,16 +202,150 @@
   </si>
   <si>
     <t>g</t>
+  </si>
+  <si>
+    <t>email</t>
+  </si>
+  <si>
+    <t>Klaas</t>
+  </si>
+  <si>
+    <t>Conn</t>
+  </si>
+  <si>
+    <t>ebates@uoregon.edu</t>
+  </si>
+  <si>
+    <t>lberny@uoregon.edu</t>
+  </si>
+  <si>
+    <t>ecastro@uoregon.edu</t>
+  </si>
+  <si>
+    <t>yijunc@uoregon.edu</t>
+  </si>
+  <si>
+    <t>aconn@uoregon.edu</t>
+  </si>
+  <si>
+    <t>edoyle3@uoregon.edu</t>
+  </si>
+  <si>
+    <t>zsf@uoregon.edu</t>
+  </si>
+  <si>
+    <t>mgallo@uoregon.edu</t>
+  </si>
+  <si>
+    <t>rebeccag@uoregon.edu</t>
+  </si>
+  <si>
+    <t>aubreyg@uoregon.edu</t>
+  </si>
+  <si>
+    <t>cguidin4@uoregon.edu</t>
+  </si>
+  <si>
+    <t>errolk@uoregon.edu</t>
+  </si>
+  <si>
+    <t>havishak@uoregon.edu</t>
+  </si>
+  <si>
+    <t>mklaas@uoregon.edu</t>
+  </si>
+  <si>
+    <t>hleonar3@uoregon.edu</t>
+  </si>
+  <si>
+    <t>cmalcom@uoregon.edu</t>
+  </si>
+  <si>
+    <t>smcweene@uoregon.edu</t>
+  </si>
+  <si>
+    <t>mmcwhirt@uoregon.edu</t>
+  </si>
+  <si>
+    <t>smendes@uoregon.edu</t>
+  </si>
+  <si>
+    <t>asander6@uoregon.edu</t>
+  </si>
+  <si>
+    <t>mvazquez@uoregon.edu</t>
+  </si>
+  <si>
+    <t>mandilyn@uoregon.edu</t>
+  </si>
+  <si>
+    <t>awarnoc7@uoregon.edu</t>
+  </si>
+  <si>
+    <t>dwelindt@uoregon.edu</t>
+  </si>
+  <si>
+    <t>git_page</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>https://github.com/heatherleonard/EDLD651Final_Project.git</t>
+  </si>
+  <si>
+    <t>DraftData.Rmd</t>
+  </si>
+  <si>
+    <t>https://github.com/merlyklaas/final_project.git</t>
+  </si>
+  <si>
+    <t xml:space="preserve">final_project_script.Rmd </t>
+  </si>
+  <si>
+    <t>https://github.com/ekgekd/EDLD651_Final.git</t>
+  </si>
+  <si>
+    <t>EDLD651_finalproj.Rmd</t>
+  </si>
+  <si>
+    <t>https://github.com/ZF-MPH/final_project.git</t>
+  </si>
+  <si>
+    <t>final_project.Rmd</t>
+  </si>
+  <si>
+    <t>draft_data_script.Rmd</t>
+  </si>
+  <si>
+    <t>https://github.com/mandiward17/Draft_data_set.git</t>
+  </si>
+  <si>
+    <t>https://github.com/cguidin4/final_project.git</t>
+  </si>
+  <si>
+    <t>https://github.com/laurenberny/final_git</t>
+  </si>
+  <si>
+    <t>markdown.Rmd</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -240,14 +368,20 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -560,19 +694,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEEF4479-1AC0-4FF0-8CC8-4FD64569A518}">
-  <dimension ref="A1:C26"/>
+  <dimension ref="A1:F25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:C26"/>
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="10.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="10.1328125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="24.265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -580,98 +715,179 @@
         <v>7</v>
       </c>
       <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E1" t="s">
+        <v>83</v>
+      </c>
+      <c r="F1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>45</v>
       </c>
       <c r="C2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E2" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F2" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B3" t="s">
         <v>46</v>
       </c>
       <c r="C3" t="s">
+        <v>71</v>
+      </c>
+      <c r="D3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E3" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F3" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>57</v>
       </c>
       <c r="C4" t="s">
+        <v>72</v>
+      </c>
+      <c r="D4" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E4" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F4" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
+        <v>21</v>
+      </c>
+      <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2</v>
+      </c>
+      <c r="E5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F5" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A6" t="s">
         <v>0</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>1</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
+      <c r="D6" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>4</v>
-      </c>
-      <c r="B6" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E6" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F6" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
+        <v>11</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E7" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F7" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A8" t="s">
         <v>9</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B8" t="s">
         <v>10</v>
       </c>
-      <c r="C7" t="s">
+      <c r="C8" t="s">
+        <v>69</v>
+      </c>
+      <c r="D8" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>11</v>
-      </c>
-      <c r="B8" t="s">
-        <v>12</v>
-      </c>
-      <c r="C8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E8" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="F8" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="B9" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C9" t="s">
+        <v>76</v>
+      </c>
+      <c r="D9" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E9" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F9" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
         <v>14</v>
       </c>
@@ -679,191 +895,345 @@
         <v>15</v>
       </c>
       <c r="C10" t="s">
+        <v>80</v>
+      </c>
+      <c r="D10" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E10" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F10" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" t="s">
+        <v>81</v>
+      </c>
+      <c r="D11" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E11" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="F11" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
+        <v>26</v>
+      </c>
+      <c r="B12" t="s">
+        <v>27</v>
+      </c>
+      <c r="C12" t="s">
+        <v>60</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F12" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13" t="s">
+        <v>58</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>25</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F13" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>66</v>
+      </c>
+      <c r="D14" t="s">
+        <v>25</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F14" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" t="s">
+        <v>25</v>
+      </c>
+      <c r="E15" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F15" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A16" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" t="s">
+        <v>75</v>
+      </c>
+      <c r="D16" t="s">
+        <v>25</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F16" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A17" t="s">
+        <v>37</v>
+      </c>
+      <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
+        <v>67</v>
+      </c>
+      <c r="D17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F17" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>33</v>
+      </c>
+      <c r="C18" t="s">
+        <v>73</v>
+      </c>
+      <c r="D18" t="s">
+        <v>34</v>
+      </c>
+      <c r="E18" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A19" t="s">
+        <v>35</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>34</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="F19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A20" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C20" t="s">
+        <v>59</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F20" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A21" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" t="s">
+        <v>61</v>
+      </c>
+      <c r="D21" t="s">
+        <v>43</v>
+      </c>
+      <c r="E21" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F21" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A22" t="s">
+        <v>44</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D22" t="s">
+        <v>43</v>
+      </c>
+      <c r="E22" s="2" t="s">
+        <v>91</v>
+      </c>
+      <c r="F22" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A23" t="s">
         <v>48</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B23" t="s">
         <v>49</v>
       </c>
-      <c r="C12" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>29</v>
-      </c>
-      <c r="B13" t="s">
-        <v>30</v>
-      </c>
-      <c r="C13" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>27</v>
-      </c>
-      <c r="B14" t="s">
-        <v>28</v>
-      </c>
-      <c r="C14" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>24</v>
-      </c>
-      <c r="B15" t="s">
-        <v>25</v>
-      </c>
-      <c r="C15" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" t="s">
-        <v>32</v>
-      </c>
-      <c r="C16" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-      <c r="B17" t="s">
-        <v>37</v>
-      </c>
-      <c r="C17" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>40</v>
-      </c>
-      <c r="B18" t="s">
-        <v>41</v>
-      </c>
-      <c r="C18" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>33</v>
-      </c>
-      <c r="B19" t="s">
-        <v>34</v>
-      </c>
-      <c r="C19" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" t="s">
-        <v>39</v>
-      </c>
-      <c r="C20" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" s="1" t="s">
-        <v>40</v>
-      </c>
-      <c r="B21" s="1" t="s">
-        <v>41</v>
-      </c>
-      <c r="C21" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>42</v>
-      </c>
-      <c r="B22" t="s">
-        <v>43</v>
-      </c>
-      <c r="C22" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>45</v>
-      </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
+        <v>64</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E23" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F23" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A24" t="s">
+        <v>51</v>
+      </c>
+      <c r="B24" t="s">
         <v>52</v>
       </c>
-      <c r="C23" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+      <c r="C24" t="s">
+        <v>77</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="B24" t="s">
-        <v>56</v>
-      </c>
-      <c r="C24" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="E24" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F24" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>50</v>
+        <v>53</v>
       </c>
       <c r="B25" t="s">
-        <v>51</v>
-      </c>
-      <c r="C25" s="1" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>53</v>
-      </c>
-      <c r="B26" t="s">
         <v>54</v>
       </c>
-      <c r="C26" s="1" t="s">
-        <v>57</v>
+      <c r="C25" t="s">
+        <v>82</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="F25" t="s">
+        <v>90</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C26">
-    <sortCondition ref="C2:C26"/>
-    <sortCondition ref="A2:A26"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:F25">
+    <sortCondition ref="D2:D25"/>
   </sortState>
+  <hyperlinks>
+    <hyperlink ref="E17" r:id="rId1" xr:uid="{1F55D968-5BD5-4279-9272-2BBD46F97A4C}"/>
+    <hyperlink ref="E18:E19" r:id="rId2" display="https://github.com/heatherleonard/EDLD651Final_Project.git" xr:uid="{42DCEA15-6EC5-4899-BB56-7D3B2457660F}"/>
+    <hyperlink ref="E4" r:id="rId3" xr:uid="{935EC19E-1398-42AF-B1B6-760F64FBF674}"/>
+    <hyperlink ref="E2" r:id="rId4" xr:uid="{08D354D1-739C-48C5-9D0D-A3DAF5A9F3CB}"/>
+    <hyperlink ref="E3" r:id="rId5" xr:uid="{2E6456A5-BBEA-400C-A3C1-66E5C1A8B36C}"/>
+    <hyperlink ref="E5" r:id="rId6" xr:uid="{A5E45266-81BE-4DC3-98EA-775B621A0B0D}"/>
+    <hyperlink ref="E6" r:id="rId7" xr:uid="{528B13BC-79B3-4C50-9D14-C93D0A7A7C3F}"/>
+    <hyperlink ref="E23" r:id="rId8" xr:uid="{B7BAF8B9-2B55-4607-BF3A-FE6FFBDFD195}"/>
+    <hyperlink ref="E24" r:id="rId9" xr:uid="{2A40A3E4-87EC-428A-B730-89E2A8A24706}"/>
+    <hyperlink ref="E25" r:id="rId10" xr:uid="{15E89C12-2596-4D79-9B89-6172A9695360}"/>
+    <hyperlink ref="E22" r:id="rId11" xr:uid="{221D4A9F-D32C-45B6-8466-DAE3883333F3}"/>
+    <hyperlink ref="E21" r:id="rId12" xr:uid="{68997FBD-631B-4CF3-82E4-0682EEB603BC}"/>
+    <hyperlink ref="E20" r:id="rId13" xr:uid="{E6B32859-0BDF-4F41-B1DA-1305CF61CAE7}"/>
+    <hyperlink ref="E9" r:id="rId14" xr:uid="{94F51E0C-67AE-4337-A389-6794D610BD15}"/>
+    <hyperlink ref="E10" r:id="rId15" xr:uid="{085347DB-E6CC-4F25-9004-ED0A35E61F12}"/>
+    <hyperlink ref="E11" r:id="rId16" xr:uid="{E166BD99-A940-4FCC-8EF7-8C737EC862AB}"/>
+    <hyperlink ref="E7" r:id="rId17" xr:uid="{A8326C50-E793-4737-919F-7F0E40FA716D}"/>
+    <hyperlink ref="E8" r:id="rId18" xr:uid="{89F3FCFD-11E3-4C2D-9F95-7B0C39E0AB81}"/>
+    <hyperlink ref="E12" r:id="rId19" xr:uid="{62AC7EAE-ECCC-4758-8169-ECE05918F297}"/>
+    <hyperlink ref="E13:E16" r:id="rId20" display="https://github.com/laurenberny/final_git" xr:uid="{84796322-BC39-4D49-BDE8-37BF36BE49B7}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId1"/>
+  <pageSetup orientation="portrait" r:id="rId21"/>
 </worksheet>
 </file>